--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Наименование</t>
   </si>
@@ -96,6 +96,16 @@
     <t>Тест для проверки производителности работы Сервера, заключается многопоточной (одновременно 4 потока) посылки
 значения на узел ID: 5, объект ID:4103, кол-во иттераций 400. Значения меняются по синусоиде
 Вывод информации производится в Test1.xls- 1-й поток, Testn.xls- n-й поток.</t>
+  </si>
+  <si>
+    <t>perfomanceSendNodeValueSync</t>
+  </si>
+  <si>
+    <t>Тест для проверки производителности работы Сервера,
+заключается в синхронной посылке,
+значения на узел указанный узел, объект, кол-во иттераций 400.
+Данный режим предусматривает что клиент должен ожидать ответа
+от Сервера, по готовности ФБ Beremiz</t>
   </si>
 </sst>
 </file>
@@ -448,7 +458,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,9 +567,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>

--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\ClientServerSocketApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -447,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,18 +453,18 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -483,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -497,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -525,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -539,7 +534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -553,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -567,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -577,25 +572,25 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Наименование</t>
   </si>
@@ -96,11 +96,37 @@
     <t>perfomanceSendNodeValueSync</t>
   </si>
   <si>
+    <t>perfomanceFindNodeObjSync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест на поиск узла
+команда: CODE_FIND_NODES_SYNC, поиск тест завершиться в случае если узел не найден, 
+либо найден но не имеет признака: msgToSend.cl.SET_ALGORITM_WAIT
+     * Результат сохраняется в классе msgToSend
+     * метод getNodeInfo выводит информацию в удобном виде
+</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
     <t>Тест для проверки производителности работы Сервера,
 заключается в синхронной посылке,
 значения на узел указанный узел, объект, кол-во иттераций 400.
 Данный режим предусматривает что клиент должен ожидать ответа
-от Сервера, по готовности ФБ Beremiz</t>
+от Сервера, по готовности ФБ Beremiz.
+Тест может работать только при условии, что вначале запускаем SocketClientApp для имитации работы ФБ Beremiz.
+Возможны 2 варианта тестирования:
+1. С использованием 2-х узлов исходное значение записывается в 1 -й узел, результируеющее из ФБ во 2-й узел. Значения записываются командой CODE_SINGLE_START
+2. С использованием 1-го узла, когда значение меняется в ФБ. Значение записывается при этом только 1-раз затем используется команда CODE_LOAD_FOR_ALGORITM</t>
+  </si>
+  <si>
+    <t>perfomanceSendNodeSync</t>
+  </si>
+  <si>
+    <t>Тест на создание узла id=1, obj=4096 с записью значения = 1,02 в синхронном режиме
+     * Результат сохраняется в классе msgToSend
+     * метод getNodeInfo выводит информацию в удобном виде</t>
   </si>
 </sst>
 </file>
@@ -161,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -169,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
@@ -478,123 +507,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Наименование</t>
   </si>
@@ -127,6 +127,12 @@
     <t>Тест на создание узла id=1, obj=4096 с записью значения = 1,02 в синхронном режиме
      * Результат сохраняется в классе msgToSend
      * метод getNodeInfo выводит информацию в удобном виде</t>
+  </si>
+  <si>
+    <t>perfomanceSendNodeMultiSync</t>
+  </si>
+  <si>
+    <t>Метод для проведения теста на создание 10 узлов и 10 объектов в цикле с записью значения синхронном режиме</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +633,13 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
@@ -647,6 +657,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>